--- a/Documents/Lookup_Values.xlsx
+++ b/Documents/Lookup_Values.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Dropbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565C70CC-0E29-4738-8045-CD36323AC07E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E19BA4A-5A50-48FF-A7AE-DF37813A0044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="255">
   <si>
     <t>LOOKUP_TYPE</t>
   </si>
@@ -974,6 +974,117 @@
   </si>
   <si>
     <t>Reporting and Audit of Hotel Management</t>
+  </si>
+  <si>
+    <t>INVENTORY_TYPE</t>
+  </si>
+  <si>
+    <t>Inventory Items</t>
+  </si>
+  <si>
+    <t>That are stocked and tracked in inventory e.g raw materials, finished goods, or work-in-progress.</t>
+  </si>
+  <si>
+    <t>Non-Inventory Items</t>
+  </si>
+  <si>
+    <t>That are not stocked or tracked in inventory. They are typically used for services or items that are expensed immediately upon purchase.</t>
+  </si>
+  <si>
+    <t>Kit Items</t>
+  </si>
+  <si>
+    <t>These are items that are made up of a collection of other items.</t>
+  </si>
+  <si>
+    <t>STOCK_TYPE</t>
+  </si>
+  <si>
+    <t>On-Hand Quantity</t>
+  </si>
+  <si>
+    <t>This refers to the actual quantity of items physically present in the inventory.</t>
+  </si>
+  <si>
+    <t>Reserved Quantity</t>
+  </si>
+  <si>
+    <t>This is the quantity of items that have been reserved for specific sales orders, work orders, or other transactions.</t>
+  </si>
+  <si>
+    <t>Available Quantity</t>
+  </si>
+  <si>
+    <t>This is the quantity of items that are available for use, calculated as On-Hand Quantity minus Reserved Quantity.</t>
+  </si>
+  <si>
+    <t>INVENTORY_STATUS</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Items that are currently available for use in transactions.</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>Items that are no longer available for use but may still exist in the system for historical purposes.</t>
+  </si>
+  <si>
+    <t>Obsolete</t>
+  </si>
+  <si>
+    <t>Items that are no longer used and are typically removed from active inventory.</t>
+  </si>
+  <si>
+    <t>SUBINVENTORIES</t>
+  </si>
+  <si>
+    <t>Stores</t>
+  </si>
+  <si>
+    <t>Subinventories used for storing raw materials and components.</t>
+  </si>
+  <si>
+    <t>Finished Goods</t>
+  </si>
+  <si>
+    <t>Subinventories used for storing completed products ready for sale.</t>
+  </si>
+  <si>
+    <t>WIP (Work in Progress)</t>
+  </si>
+  <si>
+    <t>Subinventories used for items that are in the process of being manufactured.</t>
+  </si>
+  <si>
+    <t>COSTING_METHOD</t>
+  </si>
+  <si>
+    <t>Standard Costing</t>
+  </si>
+  <si>
+    <t>Inventory is valued at a predetermined standard cost.</t>
+  </si>
+  <si>
+    <t>Average Costing</t>
+  </si>
+  <si>
+    <t>Inventory is valued at an average cost, which is recalculated after each transaction.</t>
+  </si>
+  <si>
+    <t>FIFO (First In, First Out)</t>
+  </si>
+  <si>
+    <t>Inventory is valued based on the assumption that the oldest items are sold first.</t>
+  </si>
+  <si>
+    <t>LIFO (Last In, First Out)</t>
+  </si>
+  <si>
+    <t>Inventory is valued based on the assumption that the newest items are sold first.</t>
   </si>
 </sst>
 </file>
@@ -1319,17 +1430,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C116"/>
+  <dimension ref="A1:C132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="A136" sqref="A136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="49.33203125" customWidth="1"/>
-    <col min="3" max="3" width="75.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="113.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2575,6 +2686,182 @@
         <v>170</v>
       </c>
     </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>218</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>218</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>218</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>225</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>225</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>225</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>232</v>
+      </c>
+      <c r="B123" t="s">
+        <v>233</v>
+      </c>
+      <c r="C123" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>232</v>
+      </c>
+      <c r="B124" t="s">
+        <v>235</v>
+      </c>
+      <c r="C124" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>232</v>
+      </c>
+      <c r="B125" t="s">
+        <v>237</v>
+      </c>
+      <c r="C125" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>239</v>
+      </c>
+      <c r="B126" t="s">
+        <v>240</v>
+      </c>
+      <c r="C126" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>239</v>
+      </c>
+      <c r="B127" t="s">
+        <v>242</v>
+      </c>
+      <c r="C127" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>239</v>
+      </c>
+      <c r="B128" t="s">
+        <v>244</v>
+      </c>
+      <c r="C128" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>246</v>
+      </c>
+      <c r="B129" t="s">
+        <v>247</v>
+      </c>
+      <c r="C129" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>246</v>
+      </c>
+      <c r="B130" t="s">
+        <v>249</v>
+      </c>
+      <c r="C130" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>246</v>
+      </c>
+      <c r="B131" t="s">
+        <v>251</v>
+      </c>
+      <c r="C131" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>246</v>
+      </c>
+      <c r="B132" t="s">
+        <v>253</v>
+      </c>
+      <c r="C132" t="s">
+        <v>254</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
